--- a/FaysalData/仕様書.xlsx
+++ b/FaysalData/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム進行フロー" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,269 @@
     <sheet name="前田" sheetId="3" r:id="rId3"/>
     <sheet name="柄本" sheetId="4" r:id="rId4"/>
     <sheet name="上野" sheetId="5" r:id="rId5"/>
+    <sheet name="各種計算式" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>アイテム効果量</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベーシックステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算式</t>
+    <rPh sb="4" eb="7">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定値</t>
+    <rPh sb="0" eb="3">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力-防御力準拠の倍数</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵防御力</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃固定値</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予想ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=Floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=wall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2=Pl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3=en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4=item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5=GL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器修正</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器修正は敵の計算の場合無視</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態後ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=有</t>
+    <rPh sb="2" eb="3">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=無</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=敵</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=味方</t>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵味方</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +289,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -47,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -55,12 +334,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -82,6 +532,62 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="65314"/>
+          <a:ext cx="20574000" cy="8741229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3995,6 +4501,869 @@
               <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="174171"/>
+          <a:ext cx="1208315" cy="544285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1436915" y="10091056"/>
+          <a:ext cx="2645228" cy="446315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ダンジョン・タウン選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1240972" y="12649201"/>
+          <a:ext cx="2688771" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ダンジョン内基礎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719942" y="23121256"/>
+          <a:ext cx="2558143" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タウン内</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6128657" y="13237030"/>
+          <a:ext cx="1360714" cy="272142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランダムマップ生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6204858" y="13726887"/>
+          <a:ext cx="1186542" cy="250370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239488</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6335488" y="15425058"/>
+          <a:ext cx="968827" cy="239484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315689</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6411689" y="16306801"/>
+          <a:ext cx="794654" cy="272142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>階段生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324602" y="14173201"/>
+          <a:ext cx="1023255" cy="272141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中立</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424545</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520545" y="15022289"/>
+          <a:ext cx="631369" cy="239484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6226629" y="17613087"/>
+          <a:ext cx="1197429" cy="468084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ショップウィンドウ表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76203</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172203" y="16764002"/>
+          <a:ext cx="1262740" cy="261255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>所持アイテム読込</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206831</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10884</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302831" y="15871372"/>
+          <a:ext cx="1023253" cy="293914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>地形効果生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096001" y="14586858"/>
+          <a:ext cx="1523999" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モンスターハウス生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="17199429"/>
+          <a:ext cx="1197429" cy="261256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>客情報生成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4292,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4307,12 +5676,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4334,14 +5745,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4349,13 +5766,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <f>C15*(100+(((D15+D18/2*C18)-E15)*10))/100</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="12">
+        <f>IF(D10&lt;=F15,ROUNDDOWN(F15,0),ROUNDDOWN(D10,0))</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
+        <f>IF(AND(F18=1,F20=1),ROUNDDOWN(E10*0.75*1.25,0),IF(F18=1,ROUNDDOWN(E10*0.75,0),IF(F20=1,E10*1.25,E10)))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FaysalData/仕様書.xlsx
+++ b/FaysalData/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム進行フロー" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="各種計算式" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>アイテム効果量</t>
     <rPh sb="4" eb="6">
@@ -269,6 +270,108 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>攻撃固定値*(100+(((攻撃力+武器修正/2*敵味方判定)-防御力)*10))/100*(1-毒フラグ*0.25)*(1+強化フラグ*0.25)*回復フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括式</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒、強化は数値を大きくすると強度変更可能</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=強化、状態変更</t>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=攻撃</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"-1=回復</t>
+    <rPh sb="4" eb="6">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +582,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,15 +591,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,7 +608,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5363,6 +5478,3586 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>客情報生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5715000" y="4598670"/>
+          <a:ext cx="556260" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2072640"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ターン開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 判断 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="2887980"/>
+          <a:ext cx="1600200" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 判断 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6271260" y="4122420"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>正面に何がいたか判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="4648200"/>
+          <a:ext cx="297180" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="2164080"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動方向に何があるか判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4008120"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="1935480"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 判断 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6332220" y="5890260"/>
+          <a:ext cx="2110740" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃命中判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836920" y="7543800"/>
+          <a:ext cx="952500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ダメージ判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890260" y="8153400"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="7505700"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680460" y="4427220"/>
+          <a:ext cx="868680" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そこへ移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="4960620"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9502140" y="5600700"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569720" y="4335780"/>
+          <a:ext cx="868680" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と位置入れ替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="2827020"/>
+          <a:ext cx="937260" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>向きを移動方向へ向け</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動入力へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9814560" y="4465320"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>話しかける</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="4450080"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 判断 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="4983480"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>武器が壁を破壊できる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6400800"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="6774180"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512820" y="6225540"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁を消去</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3230880" y="6858000"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="5105400"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7437120" y="2377440"/>
+          <a:ext cx="30480" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7421880" y="3352800"/>
+          <a:ext cx="15240" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7387590" y="5074920"/>
+          <a:ext cx="34290" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3489960" y="3154680"/>
+          <a:ext cx="502920" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863840" y="5090160"/>
+          <a:ext cx="320040" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5265420" y="3120390"/>
+          <a:ext cx="1371600" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="2529840"/>
+          <a:ext cx="480060" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3619500"/>
+          <a:ext cx="0" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537460" y="3329940"/>
+          <a:ext cx="723900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何もない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="37" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1455420" y="3143250"/>
+          <a:ext cx="1508760" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="2468880"/>
+          <a:ext cx="708660" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2004060" y="3375660"/>
+          <a:ext cx="1524000" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="3703320"/>
+          <a:ext cx="480060" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5055870" y="5935980"/>
+          <a:ext cx="659130" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5212080" y="6217920"/>
+          <a:ext cx="419100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3931920" y="5459730"/>
+          <a:ext cx="632460" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069080" y="5722620"/>
+          <a:ext cx="419100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3653790" y="6530340"/>
+          <a:ext cx="278130" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6313170" y="6256020"/>
+          <a:ext cx="19050" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="6774180"/>
+          <a:ext cx="487680" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>命中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6313170" y="7848600"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8439150" y="6256020"/>
+          <a:ext cx="3810" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="6835140"/>
+          <a:ext cx="952500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回避</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ミス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846820" y="2952750"/>
+          <a:ext cx="1691640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8778240" y="2948940"/>
+          <a:ext cx="975360" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上野管理へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="4598670"/>
+          <a:ext cx="1242060" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8862060" y="4465320"/>
+          <a:ext cx="594360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10652760" y="4602480"/>
+          <a:ext cx="281940" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="4823460"/>
+          <a:ext cx="1908810" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="4617720"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何もない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4732020"/>
+          <a:ext cx="3810" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1314450" y="4823460"/>
+          <a:ext cx="262890" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="フローチャート: 判断 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10538460" y="2720340"/>
+          <a:ext cx="1600200" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="0"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11963400" y="1463040"/>
+          <a:ext cx="632460" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="正方形/長方形 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13319760" y="3360420"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="2"/>
+          <a:endCxn id="126" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12165330" y="2358390"/>
+          <a:ext cx="327660" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11910060" y="3337560"/>
+          <a:ext cx="975360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スキル使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11894820" y="1920240"/>
+          <a:ext cx="975360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム使用</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5678,8 +9373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5727,6 +9422,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5792,10 +9488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H23"/>
+  <dimension ref="B4:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5806,12 +9502,15 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -5822,90 +9521,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="7" t="s">
+    <row r="8" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="8">
+    <row r="10" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16">
         <f>C15*(100+(((D15+D18/2*C18)-E15)*10))/100</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="17">
+        <f>IF(D10&lt;=F15,ROUNDDOWN(F15,0),ROUNDDOWN(D10,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <f>IF(AND(F18=1,F20=1),ROUNDDOWN(E10*0.75*1.25,0),IF(F18=1,ROUNDDOWN(E10*0.75,0),IF(F20=1,E10*1.25,E10)))</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8">
+        <f>ROUNDDOWN(C15*(100+(((D15+D18/2*C18)-E15)*10))/100*(1-F18*0.25)*(1+F20*0.25)*H18,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12">
-        <f>IF(D10&lt;=F15,ROUNDDOWN(F15,0),ROUNDDOWN(D10,0))</f>
-        <v>10</v>
-      </c>
-      <c r="F10" s="10">
-        <f>IF(AND(F18=1,F20=1),ROUNDDOWN(E10*0.75*1.25,0),IF(F18=1,ROUNDDOWN(E10*0.75,0),IF(F20=1,E10*1.25,E10)))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <v>100</v>
+    <row r="15" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>8</v>
       </c>
-      <c r="D15" s="2">
-        <v>20</v>
+      <c r="D15" s="14">
+        <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>29</v>
+      <c r="E15" s="14">
+        <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5913,18 +9622,27 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="8">
         <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>31</v>
       </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -5935,6 +9653,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FaysalData/仕様書.xlsx
+++ b/FaysalData/仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム進行フロー" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,372 @@
     <sheet name="前田" sheetId="3" r:id="rId3"/>
     <sheet name="柄本" sheetId="4" r:id="rId4"/>
     <sheet name="上野" sheetId="5" r:id="rId5"/>
+    <sheet name="各種計算式" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>アイテム効果量</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベーシックステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算式</t>
+    <rPh sb="4" eb="7">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定値</t>
+    <rPh sb="0" eb="3">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力-防御力準拠の倍数</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵防御力</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃固定値</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予想ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動生成</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=Floor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=wall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2=Pl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3=en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4=item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5=GL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器修正</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器修正は敵の計算の場合無視</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態後ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=有</t>
+    <rPh sb="2" eb="3">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=無</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=敵</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=味方</t>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵味方</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃固定値*(100+(((攻撃力+武器修正/2*敵味方判定)-防御力)*10))/100*(1-毒フラグ*0.25)*(1+強化フラグ*0.25)*回復フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括式</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒、強化は数値を大きくすると強度変更可能</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=強化、状態変更</t>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=攻撃</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"-1=回復</t>
+    <rPh sb="4" eb="6">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +392,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -47,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -55,12 +437,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -82,6 +647,62 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="65314"/>
+          <a:ext cx="20574000" cy="8741229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3995,6 +4616,4449 @@
               <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446315</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="174171"/>
+          <a:ext cx="1208315" cy="544285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1436915" y="10091056"/>
+          <a:ext cx="2645228" cy="446315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ダンジョン・タウン選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1240972" y="12649201"/>
+          <a:ext cx="2688771" cy="522514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ダンジョン内基礎</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719942" y="23121256"/>
+          <a:ext cx="2558143" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タウン内</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6128657" y="13237030"/>
+          <a:ext cx="1360714" cy="272142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ランダムマップ生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6204858" y="13726887"/>
+          <a:ext cx="1186542" cy="250370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239488</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6335488" y="15425058"/>
+          <a:ext cx="968827" cy="239484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315689</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6411689" y="16306801"/>
+          <a:ext cx="794654" cy="272142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>階段生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324602" y="14173201"/>
+          <a:ext cx="1023255" cy="272141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中立</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424545</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520545" y="15022289"/>
+          <a:ext cx="631369" cy="239484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6226629" y="17613087"/>
+          <a:ext cx="1197429" cy="468084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ショップウィンドウ表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76203</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172203" y="16764002"/>
+          <a:ext cx="1262740" cy="261255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>所持アイテム読込</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206831</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10884</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6302831" y="15871372"/>
+          <a:ext cx="1023253" cy="293914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>地形効果生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096001" y="14586858"/>
+          <a:ext cx="1523999" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モンスターハウス生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="17199429"/>
+          <a:ext cx="1197429" cy="261256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>客情報生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5715000" y="4598670"/>
+          <a:ext cx="556260" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="2072640"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ターン開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 判断 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="2887980"/>
+          <a:ext cx="1600200" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 判断 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6271260" y="4122420"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>正面に何がいたか判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="4648200"/>
+          <a:ext cx="297180" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="2164080"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動方向に何があるか判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4008120"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="1935480"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 判断 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6332220" y="5890260"/>
+          <a:ext cx="2110740" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃命中判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5836920" y="7543800"/>
+          <a:ext cx="952500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ダメージ判定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890260" y="8153400"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="7505700"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680460" y="4427220"/>
+          <a:ext cx="868680" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そこへ移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="4960620"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9502140" y="5600700"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569720" y="4335780"/>
+          <a:ext cx="868680" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と位置入れ替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="2827020"/>
+          <a:ext cx="937260" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>向きを移動方向へ向け</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動入力へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9814560" y="4465320"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>話しかける</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="4450080"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート: 判断 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="4983480"/>
+          <a:ext cx="2301240" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>武器が壁を破壊できる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6400800"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="6774180"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3512820" y="6225540"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁を消去</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3230880" y="6858000"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="891540" y="5105400"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7437120" y="2377440"/>
+          <a:ext cx="30480" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7421880" y="3352800"/>
+          <a:ext cx="15240" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7387590" y="5074920"/>
+          <a:ext cx="34290" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3489960" y="3154680"/>
+          <a:ext cx="502920" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863840" y="5090160"/>
+          <a:ext cx="320040" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5265420" y="3120390"/>
+          <a:ext cx="1371600" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="2529840"/>
+          <a:ext cx="480060" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3619500"/>
+          <a:ext cx="0" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2537460" y="3329940"/>
+          <a:ext cx="723900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何もない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="37" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1455420" y="3143250"/>
+          <a:ext cx="1508760" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="2468880"/>
+          <a:ext cx="708660" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2004060" y="3375660"/>
+          <a:ext cx="1524000" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="3703320"/>
+          <a:ext cx="480060" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5055870" y="5935980"/>
+          <a:ext cx="659130" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5212080" y="6217920"/>
+          <a:ext cx="419100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3931920" y="5459730"/>
+          <a:ext cx="632460" cy="765810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069080" y="5722620"/>
+          <a:ext cx="419100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3653790" y="6530340"/>
+          <a:ext cx="278130" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6313170" y="6256020"/>
+          <a:ext cx="19050" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="6774180"/>
+          <a:ext cx="487680" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>命中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6313170" y="7848600"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8439150" y="6256020"/>
+          <a:ext cx="3810" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="6835140"/>
+          <a:ext cx="952500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回避</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ミス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846820" y="2952750"/>
+          <a:ext cx="1691640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8778240" y="2948940"/>
+          <a:ext cx="975360" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上野管理へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="4598670"/>
+          <a:ext cx="1242060" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8862060" y="4465320"/>
+          <a:ext cx="594360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10652760" y="4602480"/>
+          <a:ext cx="281940" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="4823460"/>
+          <a:ext cx="1908810" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="4617720"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何もない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="4732020"/>
+          <a:ext cx="3810" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1314450" y="4823460"/>
+          <a:ext cx="262890" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="フローチャート: 判断 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10538460" y="2720340"/>
+          <a:ext cx="1600200" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>行動選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="0"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11963400" y="1463040"/>
+          <a:ext cx="632460" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="正方形/長方形 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13319760" y="3360420"/>
+          <a:ext cx="845820" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ターン経過</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="2"/>
+          <a:endCxn id="126" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12165330" y="2358390"/>
+          <a:ext cx="327660" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11910060" y="3337560"/>
+          <a:ext cx="975360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スキル使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11894820" y="1920240"/>
+          <a:ext cx="975360" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アイテム使用</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4292,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4307,15 +9371,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4334,14 +9441,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4349,13 +9462,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="16">
+        <f>C15*(100+(((D15+D18/2*C18)-E15)*10))/100</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="17">
+        <f>IF(D10&lt;=F15,ROUNDDOWN(F15,0),ROUNDDOWN(D10,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <f>IF(AND(F18=1,F20=1),ROUNDDOWN(E10*0.75*1.25,0),IF(F18=1,ROUNDDOWN(E10*0.75,0),IF(F20=1,E10*1.25,E10)))</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8">
+        <f>ROUNDDOWN(C15*(100+(((D15+D18/2*C18)-E15)*10))/100*(1-F18*0.25)*(1+F20*0.25)*H18,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>